--- a/order_history.xlsx
+++ b/order_history.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13470" windowWidth="27000" xWindow="10020" yWindow="1365"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13470" windowWidth="27000" xWindow="21195" yWindow="1455"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="receipt" sheetId="1" state="visible" r:id="rId1"/>
@@ -352,10 +352,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
@@ -997,6 +997,58 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-03-16 14:36:31</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>카페라떼(ICE)</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E25" t="n">
+        <v>13500</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-03-16 14:36:31</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>카페라떼(HOT)</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4500</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1009,10 +1061,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
@@ -1132,6 +1184,16 @@
         <v>21500</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-03-16 14:36:31</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/order_history.xlsx
+++ b/order_history.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="A2" sqref="A2"/>
@@ -1180,6 +1180,58 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-03-30 12:29:59</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>아메리카노(ICE)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2020-03-30 12:29:59</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>카페라떼(ICE)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1192,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="B11" sqref="B11"/>
@@ -1355,6 +1407,16 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-03-30 12:29:59</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/order_history.xlsx
+++ b/order_history.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="A2" sqref="A2"/>
@@ -1232,6 +1232,240 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2020-04-01 18:18:38</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>카페라떼(HOT)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E34" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2020-04-01 18:18:38</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>카페라떼(ICE)</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2020-04-01 18:24:18</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>카페라떼(HOT)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>현금</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2020-04-01 18:24:18</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>아메리카노(HOT)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E37" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>현금</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2020-04-03 17:31:21</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>아메리카노(ICE)</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2020-04-03 17:31:21</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>카페라떼(ICE)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E39" t="n">
+        <v>13500</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2020-04-03 17:31:48</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>아메리카노(HOT)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>현금</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2020-04-03 18:11:28</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>아메리카노(ICE)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E41" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2020-04-03 18:11:28</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>카페라떼(ICE)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4500</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1244,7 +1478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="B11" sqref="B11"/>
@@ -1417,6 +1651,56 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-04-01 18:18:38</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-04-01 18:24:18</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-04-03 17:31:21</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>33500</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-04-03 17:31:48</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-04-03 18:11:28</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>12500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
